--- a/data/capacity_factor_analysis.xlsx
+++ b/data/capacity_factor_analysis.xlsx
@@ -238,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,10 +271,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,14 +299,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,10 +311,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -341,12 +325,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -412,17 +396,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
@@ -431,6 +415,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +898,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -936,174 +921,172 @@
         <v>38.31</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">AVERAGE(B2:B21)</f>
+        <v>36.97</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+    <row r="27" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="11" t="n">
         <v>2002</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="11" t="n">
         <v>44.8</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="12" t="n">
         <v>26.6</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F27" s="12" t="n">
         <v>29.12</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="15" t="n">
+      <c r="C28" s="14" t="n">
         <v>2000</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="8" t="n">
         <v>44.2</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="8" t="n">
         <v>21.4</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="8" t="n">
         <v>27.5</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="17" t="n">
+      <c r="C29" s="14" t="n">
         <v>2018</v>
       </c>
-      <c r="D29" s="17" t="n">
+      <c r="D29" s="14" t="n">
         <v>44.4</v>
       </c>
-      <c r="E29" s="17" t="n">
+      <c r="E29" s="14" t="n">
         <v>26.1</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="n">
+      <c r="B30" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="17" t="n">
+      <c r="C30" s="14" t="n">
         <v>2014</v>
       </c>
-      <c r="D30" s="17" t="n">
+      <c r="D30" s="14" t="n">
         <v>24.3</v>
       </c>
-      <c r="E30" s="17" t="n">
+      <c r="E30" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="F30" s="17" t="n">
+      <c r="F30" s="14" t="n">
         <v>39.8</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="16" t="n">
+      <c r="B31" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="14" t="n">
         <v>2010</v>
       </c>
-      <c r="D31" s="17" t="n">
+      <c r="D31" s="14" t="n">
         <v>28.8</v>
       </c>
-      <c r="E31" s="17" t="n">
+      <c r="E31" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F31" s="17" t="n">
+      <c r="F31" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16" t="n">
+      <c r="B32" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="19" t="n">
+      <c r="C32" s="16" t="n">
         <v>2005</v>
       </c>
-      <c r="D32" s="20" t="n">
+      <c r="D32" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="E32" s="17" t="n">
+      <c r="E32" s="14" t="n">
         <v>15.4</v>
       </c>
-      <c r="F32" s="17" t="n">
+      <c r="F32" s="14" t="n">
         <v>13.82</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="23"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="16" t="n">
+      <c r="B35" s="13" t="n">
         <v>1898</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -1114,21 +1097,18 @@
       <c r="A36" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="13" t="n">
         <v>1955</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="16" t="n">
+      <c r="B37" s="13" t="n">
         <v>1970</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -1139,7 +1119,7 @@
       <c r="A38" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="24" t="n">
+      <c r="B38" s="20" t="n">
         <v>1980</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -1150,7 +1130,7 @@
       <c r="A39" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="24" t="n">
+      <c r="B39" s="20" t="n">
         <v>1995</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -1161,7 +1141,7 @@
       <c r="A40" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="16" t="n">
+      <c r="B40" s="13" t="n">
         <v>2010</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -1180,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1190,7 +1170,10 @@
       <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1203,7 +1186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1213,7 +1196,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
